--- a/output/aggregate_tables/status_by_landings_area_wo_tuna.xlsx
+++ b/output/aggregate_tables/status_by_landings_area_wo_tuna.xlsx
@@ -1168,13 +1168,13 @@
         <v>0</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1213498</v>
+        <v>0.11214782</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>0.26934514</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1213498</v>
+        <v>0.11214782</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0.26934514</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>31.05998762103241</v>
+        <v>29.39708769461958</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>68.94001237896759</v>
+        <v>70.60291230538041</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>31.05998762103241</v>
+        <v>29.39708769461958</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>68.94001237896759</v>
+        <v>70.60291230538041</v>
       </c>
     </row>
     <row r="21">
@@ -1239,34 +1239,34 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>0.04815183999999999</v>
+        <v>0.02746989</v>
       </c>
       <c r="C22" s="7" t="n">
-        <v>0.02270955</v>
+        <v>0.02122207</v>
       </c>
       <c r="D22" s="8" t="n">
         <v>0.008423449999999999</v>
       </c>
       <c r="E22" s="7" t="n">
-        <v>0.07086139</v>
+        <v>0.04869196</v>
       </c>
       <c r="F22" s="8" t="n">
         <v>0.008423449999999999</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>60.73272015179699</v>
+        <v>48.09540892729301</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>28.64299152271734</v>
+        <v>37.15646968129967</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>10.62428832548568</v>
+        <v>14.74812139140733</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>89.37571167451432</v>
+        <v>85.25187860859268</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>10.62428832548568</v>
+        <v>14.74812139140733</v>
       </c>
     </row>
     <row r="23">
@@ -1276,34 +1276,34 @@
         </is>
       </c>
       <c r="B23" s="5" t="n">
-        <v>18.53246260204853</v>
+        <v>18.51178065204853</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>33.70221339721759</v>
+        <v>33.6915239372176</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>17.59242457018554</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>52.23467599926612</v>
+        <v>52.20330458926613</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>17.59242457018554</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>26.54050139689777</v>
+        <v>26.52279856516361</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>48.26523387391202</v>
+        <v>48.27161252266269</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>25.19426472919022</v>
+        <v>25.20558891217371</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>74.80573527080979</v>
+        <v>74.79441108782629</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>25.19426472919022</v>
+        <v>25.20558891217371</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/status_by_landings_area_wo_tuna.xlsx
+++ b/output/aggregate_tables/status_by_landings_area_wo_tuna.xlsx
@@ -814,31 +814,31 @@
         <v>0.1076468498507463</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.5506102536970592</v>
+        <v>0.5499551136970593</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.7339507564521944</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.6582571035478054</v>
+        <v>0.6576019635478055</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.7339507564521944</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>7.732096114638104</v>
+        <v>7.735736368705187</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>39.54942861025503</v>
+        <v>39.52096861246186</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>52.71847527510687</v>
+        <v>52.74329501883294</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>47.28152472489313</v>
+        <v>47.25670498116705</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>52.71847527510687</v>
+        <v>52.74329501883294</v>
       </c>
     </row>
     <row r="11">
@@ -846,7 +846,7 @@
         <v>51</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>1.615486677475507</v>
+        <v>1.614989422475507</v>
       </c>
       <c r="C11" s="5" t="n">
         <v>2.312982841285578</v>
@@ -855,25 +855,25 @@
         <v>1.297435170238915</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.928469518761085</v>
+        <v>3.927972263761085</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>1.297435170238915</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>30.9130528322865</v>
+        <v>30.90647844926512</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>44.25995074411082</v>
+        <v>44.26416256531046</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>24.82699642360268</v>
+        <v>24.82935898542442</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>75.17300357639732</v>
+        <v>75.17064101457558</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>24.82699642360268</v>
+        <v>24.82935898542442</v>
       </c>
     </row>
     <row r="12">
@@ -884,31 +884,31 @@
         <v>1.018722431806378</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.80784499403579</v>
+        <v>3.80766260903579</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>0.9712632499324924</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.826567425842168</v>
+        <v>4.826385040842168</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>0.9712632499324924</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>17.57075169619823</v>
+        <v>17.57130444472443</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>65.67706452598352</v>
+        <v>65.67598477980499</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>16.75218377781824</v>
+        <v>16.75271077547058</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>83.24781622218175</v>
+        <v>83.24728922452942</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>16.75218377781824</v>
+        <v>16.75271077547058</v>
       </c>
     </row>
     <row r="13">
@@ -992,28 +992,28 @@
         <v>2.415107188610831</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.589177635161871</v>
+        <v>4.588987080161871</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>6.874689614838128</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.589177635161871</v>
+        <v>4.588987080161871</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>38.90120435778159</v>
+        <v>38.90185099316687</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>21.0671245221444</v>
+        <v>21.06747471048451</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>40.03167112007399</v>
+        <v>40.03067429634861</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>59.968328879926</v>
+        <v>59.96932570365138</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>40.03167112007399</v>
+        <v>40.03067429634861</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         <v>77</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.8879982600638292</v>
+        <v>0.8860581650638293</v>
       </c>
       <c r="C16" s="5" t="n">
         <v>0.5745826010954072</v>
@@ -1030,25 +1030,25 @@
         <v>0.2475350147028325</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1.462580861159236</v>
+        <v>1.460640766159236</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.2475350147028325</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>51.92620410100511</v>
+        <v>51.87160332039483</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>33.59904490716222</v>
+        <v>33.63720569819994</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>14.47475099183266</v>
+        <v>14.49119098140523</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>85.52524900816734</v>
+        <v>85.50880901859477</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>14.47475099183266</v>
+        <v>14.49119098140523</v>
       </c>
     </row>
     <row r="17">
@@ -1242,31 +1242,31 @@
         <v>0.02746989</v>
       </c>
       <c r="C22" s="7" t="n">
-        <v>0.02122207</v>
+        <v>0.02118677</v>
       </c>
       <c r="D22" s="8" t="n">
-        <v>0.008423449999999999</v>
+        <v>0.00776831</v>
       </c>
       <c r="E22" s="7" t="n">
-        <v>0.04869196</v>
+        <v>0.04865666</v>
       </c>
       <c r="F22" s="8" t="n">
-        <v>0.008423449999999999</v>
+        <v>0.00776831</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>48.09540892729301</v>
+        <v>48.68392486517937</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>37.15646968129967</v>
+        <v>37.54857113791996</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>14.74812139140733</v>
+        <v>13.76750399690066</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>85.25187860859268</v>
+        <v>86.23249600309933</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>14.74812139140733</v>
+        <v>13.76750399690066</v>
       </c>
     </row>
     <row r="23">
@@ -1276,34 +1276,34 @@
         </is>
       </c>
       <c r="B23" s="5" t="n">
-        <v>18.51178065204853</v>
+        <v>18.50934330204853</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>33.6915239372176</v>
+        <v>33.69065111221761</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>17.59242457018554</v>
+        <v>17.59157887518554</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>52.20330458926613</v>
+        <v>52.19999441426614</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>17.59242457018554</v>
+        <v>17.59157887518554</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>26.52279856516361</v>
+        <v>26.52088558783936</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>48.27161252266269</v>
+        <v>48.27323632967825</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>25.20558891217371</v>
+        <v>25.2058780824824</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>74.79441108782629</v>
+        <v>74.7941219175176</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>25.20558891217371</v>
+        <v>25.2058780824824</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/status_by_landings_area_wo_tuna.xlsx
+++ b/output/aggregate_tables/status_by_landings_area_wo_tuna.xlsx
@@ -604,31 +604,31 @@
         <v>0.2158518205687284</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>1.00600099553715</v>
+        <v>0.9859867053471901</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.2327224185607216</v>
+        <v>0.2254840312804062</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1.221852816105878</v>
+        <v>1.201838525915919</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.2327224185607216</v>
+        <v>0.2254840312804062</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>14.83950884246997</v>
+        <v>15.12284798418123</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>69.16115244927384</v>
+        <v>69.0794593258551</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>15.99933870825619</v>
+        <v>15.79769268996366</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>84.00066129174381</v>
+        <v>84.20230731003633</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>15.99933870825619</v>
+        <v>15.79769268996366</v>
       </c>
     </row>
     <row r="5">
@@ -642,28 +642,28 @@
         <v>6.098702024467025</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9839440814836907</v>
+        <v>0.9839436444806937</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>6.397889737481826</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.9839440814836907</v>
+        <v>0.9839436444806937</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>4.053026935476707</v>
+        <v>4.053027175415057</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>82.61770955610174</v>
+        <v>82.61771444705293</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>13.32926350842154</v>
+        <v>13.32925837753201</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>86.67073649157845</v>
+        <v>86.67074162246799</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>13.32926350842154</v>
+        <v>13.32925837753201</v>
       </c>
     </row>
     <row r="6">
@@ -1167,32 +1167,32 @@
       <c r="B20" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C20" s="5" t="n">
-        <v>0.11214782</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>0.26934514</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>0.11214782</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>0.26934514</v>
+      <c r="C20" s="7" t="n">
+        <v>0.04298276364640884</v>
+      </c>
+      <c r="D20" s="7" t="n">
+        <v>0.03504234798678382</v>
+      </c>
+      <c r="E20" s="7" t="n">
+        <v>0.04298276364640884</v>
+      </c>
+      <c r="F20" s="7" t="n">
+        <v>0.03504234798678382</v>
       </c>
       <c r="G20" s="9" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>29.39708769461958</v>
+        <v>55.08837186735091</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>70.60291230538041</v>
+        <v>44.91162813264909</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>29.39708769461958</v>
+        <v>55.08837186735091</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>70.60291230538041</v>
+        <v>44.91162813264909</v>
       </c>
     </row>
     <row r="21">
@@ -1239,34 +1239,34 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>0.02746989</v>
+        <v>0.02678414</v>
       </c>
       <c r="C22" s="7" t="n">
-        <v>0.02118677</v>
+        <v>0.02084913</v>
       </c>
       <c r="D22" s="8" t="n">
-        <v>0.00776831</v>
+        <v>0.00601671</v>
       </c>
       <c r="E22" s="7" t="n">
-        <v>0.04865666</v>
+        <v>0.04763327000000001</v>
       </c>
       <c r="F22" s="8" t="n">
-        <v>0.00776831</v>
+        <v>0.00601671</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>48.68392486517937</v>
+        <v>49.92385831271513</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>37.54857113791996</v>
+        <v>38.86139379735091</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>13.76750399690066</v>
+        <v>11.21474788993398</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>86.23249600309933</v>
+        <v>88.78525211006604</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>13.76750399690066</v>
+        <v>11.21474788993398</v>
       </c>
     </row>
     <row r="23">
@@ -1276,34 +1276,34 @@
         </is>
       </c>
       <c r="B23" s="5" t="n">
-        <v>18.50934330204853</v>
+        <v>18.50865755204853</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>33.69065111221761</v>
+        <v>33.60113412567404</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>17.59157887518554</v>
+        <v>17.34828565888902</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>52.19999441426614</v>
+        <v>52.10979167772258</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>17.59157887518554</v>
+        <v>17.34828565888902</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>26.52088558783936</v>
+        <v>26.6472356589297</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>48.27323632967825</v>
+        <v>48.37613624522654</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>25.2058780824824</v>
+        <v>24.97662809584375</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>74.7941219175176</v>
+        <v>75.02337190415624</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>25.2058780824824</v>
+        <v>24.97662809584375</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/status_by_landings_area_wo_tuna.xlsx
+++ b/output/aggregate_tables/status_by_landings_area_wo_tuna.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,31 +604,31 @@
         <v>0.2158518205687284</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.9859867053471901</v>
+        <v>1.046502236980868</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.2254840312804062</v>
+        <v>0.2544816107386248</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1.201838525915919</v>
+        <v>1.262354057549597</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.2254840312804062</v>
+        <v>0.2544816107386248</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>15.12284798418123</v>
+        <v>14.23040248073289</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>69.0794593258551</v>
+        <v>68.9924596882579</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>15.79769268996366</v>
+        <v>16.77713783100922</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>84.20230731003633</v>
+        <v>83.22286216899079</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>15.79769268996366</v>
+        <v>16.77713783100922</v>
       </c>
     </row>
     <row r="5">
@@ -639,31 +639,31 @@
         <v>0.2991877130148013</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.098702024467025</v>
+        <v>6.098671908587222</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9839436444806937</v>
+        <v>0.9839440814836907</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.397889737481826</v>
+        <v>6.397859621602023</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.9839436444806937</v>
+        <v>0.9839440814836907</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>4.053027175415057</v>
+        <v>4.053043470794758</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>82.61771444705293</v>
+        <v>82.61763864078203</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>13.32925837753201</v>
+        <v>13.32931788842321</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>86.67074162246799</v>
+        <v>86.6706821115768</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>13.32925837753201</v>
+        <v>13.32931788842321</v>
       </c>
     </row>
     <row r="6">
@@ -811,34 +811,34 @@
         <v>47</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>0.1076468498507463</v>
+        <v>0.1075278911764706</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.5499551136970593</v>
+        <v>0.5502327098954789</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.7339507564521944</v>
+        <v>0.7338101689280504</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.6576019635478055</v>
+        <v>0.6577606010719494</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.7339507564521944</v>
+        <v>0.7338101689280504</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>7.735736368705187</v>
+        <v>7.727087511077182</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>39.52096861246186</v>
+        <v>39.54040439463089</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>52.74329501883294</v>
+        <v>52.73250809429192</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>47.25670498116705</v>
+        <v>47.26749190570807</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>52.74329501883294</v>
+        <v>52.73250809429192</v>
       </c>
     </row>
     <row r="11">
@@ -916,34 +916,34 @@
         <v>61</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>4.559567262754046</v>
+        <v>4.538257679885828</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>5.920655771900423</v>
+        <v>5.935660916396547</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>3.934659445344532</v>
+        <v>3.948118123716624</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10.48022303465447</v>
+        <v>10.47391859628237</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3.934659445344532</v>
+        <v>3.948118123716624</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>31.63097076289422</v>
+        <v>31.46752270844408</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>41.07321568604861</v>
+        <v>41.15688395222003</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>27.29581355105716</v>
+        <v>27.37559333933591</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>72.70418644894283</v>
+        <v>72.62440666066411</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>27.29581355105716</v>
+        <v>27.37559333933591</v>
       </c>
     </row>
     <row r="14">
@@ -1128,10 +1128,10 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>0.3808164166666667</v>
+        <v>0.3791666033333334</v>
       </c>
       <c r="C19" s="8" t="n">
-        <v>0.004203333333333334</v>
+        <v>0.005853146666666665</v>
       </c>
       <c r="D19" s="9" t="n">
         <v>0</v>
@@ -1143,10 +1143,10 @@
         <v>0</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>98.90828111198626</v>
+        <v>98.47978014980617</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>1.091718888013754</v>
+        <v>1.520219850193832</v>
       </c>
       <c r="I19" s="9" t="n">
         <v>0</v>
@@ -1161,149 +1161,112 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Deep Sea</t>
-        </is>
-      </c>
-      <c r="B20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="7" t="n">
-        <v>0.04298276364640884</v>
+          <t>Salmon</t>
+        </is>
+      </c>
+      <c r="B20" s="7" t="n">
+        <v>0.07400945213675213</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>0.2658024863247863</v>
       </c>
       <c r="D20" s="7" t="n">
-        <v>0.03504234798678382</v>
-      </c>
-      <c r="E20" s="7" t="n">
-        <v>0.04298276364640884</v>
+        <v>0.03519706153846154</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.3398119384615385</v>
       </c>
       <c r="F20" s="7" t="n">
-        <v>0.03504234798678382</v>
-      </c>
-      <c r="G20" s="9" t="n">
-        <v>0</v>
+        <v>0.03519706153846154</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>19.7353802540078</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>55.08837186735091</v>
+        <v>70.87896192485682</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>44.91162813264909</v>
+        <v>9.38565782113537</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>55.08837186735091</v>
+        <v>90.61434217886463</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>44.91162813264909</v>
+        <v>9.38565782113537</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Salmon</t>
+          <t>Sharks</t>
         </is>
       </c>
       <c r="B21" s="7" t="n">
-        <v>0.07400945213675213</v>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>0.2658024863247863</v>
-      </c>
-      <c r="D21" s="7" t="n">
-        <v>0.03519706153846154</v>
-      </c>
-      <c r="E21" s="5" t="n">
-        <v>0.3398119384615385</v>
-      </c>
-      <c r="F21" s="7" t="n">
-        <v>0.03519706153846154</v>
+        <v>0.02678414</v>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>0.02084913</v>
+      </c>
+      <c r="D21" s="8" t="n">
+        <v>0.00601671</v>
+      </c>
+      <c r="E21" s="7" t="n">
+        <v>0.04763327000000001</v>
+      </c>
+      <c r="F21" s="8" t="n">
+        <v>0.00601671</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>19.7353802540078</v>
+        <v>49.92385831271513</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>70.87896192485682</v>
+        <v>38.86139379735091</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>9.38565782113537</v>
+        <v>11.21474788993398</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>90.61434217886463</v>
+        <v>88.78525211006604</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>9.38565782113537</v>
+        <v>11.21474788993398</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Sharks</t>
-        </is>
-      </c>
-      <c r="B22" s="7" t="n">
-        <v>0.02678414</v>
-      </c>
-      <c r="C22" s="7" t="n">
-        <v>0.02084913</v>
-      </c>
-      <c r="D22" s="8" t="n">
-        <v>0.00601671</v>
-      </c>
-      <c r="E22" s="7" t="n">
-        <v>0.04763327000000001</v>
-      </c>
-      <c r="F22" s="8" t="n">
-        <v>0.00601671</v>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="B22" s="5" t="n">
+        <v>18.4855791971727</v>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>33.63556933180939</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>17.35555941821139</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>52.12114852898209</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>17.35555941821139</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>49.92385831271513</v>
+        <v>26.6068726388459</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>38.86139379735091</v>
+        <v>48.41272755377884</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>11.21474788993398</v>
+        <v>24.98039980737526</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>88.78525211006604</v>
+        <v>75.01960019262474</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>11.21474788993398</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="B23" s="5" t="n">
-        <v>18.50865755204853</v>
-      </c>
-      <c r="C23" s="5" t="n">
-        <v>33.60113412567404</v>
-      </c>
-      <c r="D23" s="5" t="n">
-        <v>17.34828565888902</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>52.10979167772258</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>17.34828565888902</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>26.6472356589297</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>48.37613624522654</v>
-      </c>
-      <c r="I23" s="5" t="n">
-        <v>24.97662809584375</v>
-      </c>
-      <c r="J23" s="5" t="n">
-        <v>75.02337190415624</v>
-      </c>
-      <c r="K23" s="5" t="n">
-        <v>24.97662809584375</v>
+        <v>24.98039980737526</v>
       </c>
     </row>
   </sheetData>
